--- a/005-formatacao/23-formatacaoCondicional-linhaInteira.xlsx
+++ b/005-formatacao/23-formatacaoCondicional-linhaInteira.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\005-formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4402D9F0-7D44-4727-89D9-5C3D417AA918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB410A-C91C-480E-B4E5-92192B25FB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formatação Condicional" sheetId="1" r:id="rId1"/>
@@ -222,18 +222,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -263,7 +256,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,7 +964,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C1=31</formula>
     </cfRule>
   </conditionalFormatting>
@@ -987,7 +980,9 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1381,7 +1376,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
         <v>27</v>
@@ -1391,6 +1386,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:D28">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B2="Belo Horizonte"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
